--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3001.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3001.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.180252295184204</v>
+        <v>1.520797848701477</v>
       </c>
       <c r="B1">
-        <v>2.434536156430845</v>
+        <v>1.714658617973328</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.093204975128174</v>
       </c>
       <c r="D1">
-        <v>2.302361913317541</v>
+        <v>2.809376955032349</v>
       </c>
       <c r="E1">
-        <v>1.20145059093955</v>
+        <v>6.489599704742432</v>
       </c>
     </row>
   </sheetData>
